--- a/Module_6/[A0422I1]_BlackBoxTC_TriLHH/[A0422I1]_BlackBoxTC_TriLHH.xlsx
+++ b/Module_6/[A0422I1]_BlackBoxTC_TriLHH/[A0422I1]_BlackBoxTC_TriLHH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\[A0422I1]_BlackBoxTC_TriLHH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5EC74-E1A9-4D59-8AB1-D64309D4F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C26626-0DDA-4DA5-8896-EE71F1E1BEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3317,10 +3317,6 @@
     <t>FUNC-1 =&gt; FUNC-10</t>
   </si>
   <si>
-    <t>Check the layout,Check that the list of booked movies is displayed correctly
-(TÊN PHIM , NGÀY ĐẶT, TỔNG TIỀN , TRẠNG THÁI)</t>
-  </si>
-  <si>
     <t>+ Value : get from the reference ticket table to the movie table based on the corresponding customer_id =1  at login
  + Display :
    - The list works properly and displays full information about the user's booked tickets , screen must display correct data ,display at the right positions.
@@ -3346,10 +3342,6 @@
   </si>
   <si>
     <t xml:space="preserve">Layout, Display user-point (Paging, search ,..),  Check links </t>
-  </si>
-  <si>
-    <t>Check that the points history list displays correctly
-(NGÀY TẠO, TÊN PHIM, ĐIỂM CỘNG)</t>
   </si>
   <si>
     <t>FUNC-1 =&gt; FUNC-2</t>
@@ -3423,6 +3415,14 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Check the layout,Check that the list of booked movies is displayed correctly
+( [TÊN PHIM] , [NGÀY ĐẶT], [TỔNG TIỀN] , [TRẠNG THÁI])</t>
+  </si>
+  <si>
+    <t>Check that the points history list displays correctly
+( [NGÀY TẠO], [TÊN PHIM], [ĐIỂM CỘNG])</t>
   </si>
 </sst>
 </file>
@@ -4562,6 +4562,7 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4626,7 +4627,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -4961,14 +4961,14 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
@@ -4999,11 +4999,11 @@
       <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="37" t="s">
         <v>2</v>
       </c>
@@ -5016,11 +5016,11 @@
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="39" t="s">
         <v>4</v>
       </c>
@@ -5030,14 +5030,14 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="39" t="s">
         <v>6</v>
       </c>
@@ -5046,10 +5046,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="118"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="125"/>
       <c r="F7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7898,15 +7898,15 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -7930,15 +7930,15 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="133" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -7962,15 +7962,15 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="135" t="s">
+      <c r="C5" s="133"/>
+      <c r="D5" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -8095,7 +8095,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>55</v>
@@ -8133,7 +8133,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>58</v>
@@ -15502,7 +15502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD9AE2E-7610-43B8-A984-71E5EDB0A4B4}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15518,13 +15520,13 @@
       <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="68"/>
@@ -15550,13 +15552,13 @@
       <c r="A2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="138"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
@@ -15582,13 +15584,13 @@
       <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="68"/>
@@ -15623,10 +15625,10 @@
       <c r="D4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="68"/>
@@ -15653,8 +15655,8 @@
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="73"/>
       <c r="H5" s="73"/>
       <c r="I5" s="68"/>
@@ -15749,16 +15751,16 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -15783,13 +15785,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>251</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="78"/>
@@ -15825,7 +15827,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="79"/>
       <c r="F10" s="78"/>
@@ -16219,16 +16221,16 @@
       <c r="Z22" s="68"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="133"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
@@ -23066,7 +23068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE110582-826A-4EEA-9963-4D592A8C52DA}">
   <dimension ref="A2:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
@@ -24387,7 +24389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24403,13 +24407,13 @@
       <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="137" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="68"/>
@@ -24435,13 +24439,13 @@
       <c r="A2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
@@ -24467,13 +24471,13 @@
       <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="68"/>
@@ -24508,10 +24512,10 @@
       <c r="D4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="68"/>
@@ -24538,8 +24542,8 @@
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="73"/>
       <c r="H5" s="73"/>
       <c r="I5" s="68"/>
@@ -24634,16 +24638,16 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -24668,7 +24672,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>256</v>
@@ -25120,16 +25124,16 @@
       <c r="Z22" s="68"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="133"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
@@ -32063,7 +32067,7 @@
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -32519,8 +32523,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
-        <v>282</v>
+      <c r="B45" s="113" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/Module_6/[A0422I1]_BlackBoxTC_TriLHH/[A0422I1]_BlackBoxTC_TriLHH.xlsx
+++ b/Module_6/[A0422I1]_BlackBoxTC_TriLHH/[A0422I1]_BlackBoxTC_TriLHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\[A0422I1]_BlackBoxTC_TriLHH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5C358-A60E-4025-931E-1978ABC8E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F2AAA9-AA27-4D7B-B7A9-06656809C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="304">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1857,13 +1857,7 @@
     <t>FUNC-1 =&gt; FUNC-5</t>
   </si>
   <si>
-    <t>FUNC-5 =&gt; FUNC-10</t>
-  </si>
-  <si>
     <t>Search by Between Date (Example Search : 01/09/2022 - 30/9/2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result : </t>
   </si>
   <si>
     <t>FUNC-1 =&gt; FUNC-2 And FUNC-4-FUNC-5</t>
@@ -3701,6 +3695,18 @@
 8. Enter the page number in the input5. Enter the page number in the input (Enter the page number that contains special characters )
 9. click button &gt;&gt;</t>
   </si>
+  <si>
+    <t xml:space="preserve">Result  (3 record in 1 page): </t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>FUNC-5 =&gt; FUNC-15</t>
+  </si>
 </sst>
 </file>
 
@@ -8371,7 +8377,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>55</v>
@@ -8409,7 +8415,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>58</v>
@@ -15797,7 +15803,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="131"/>
       <c r="D1" s="131"/>
@@ -16061,13 +16067,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="77"/>
@@ -16100,10 +16106,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="77"/>
@@ -16136,7 +16142,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>222</v>
@@ -16172,7 +16178,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>225</v>
@@ -16208,7 +16214,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>224</v>
@@ -16244,7 +16250,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>223</v>
@@ -16711,13 +16717,13 @@
         <v>192</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E29" s="78"/>
       <c r="F29" s="77"/>
@@ -16747,13 +16753,13 @@
         <v>193</v>
       </c>
       <c r="B30" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="79" t="s">
         <v>293</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>295</v>
       </c>
       <c r="E30" s="78"/>
       <c r="F30" s="77"/>
@@ -23460,7 +23466,7 @@
     </row>
     <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -24414,7 +24420,7 @@
     <row r="57" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -24681,8 +24687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24700,7 +24706,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C1" s="131"/>
       <c r="D1" s="131"/>
@@ -24732,7 +24738,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
@@ -24964,10 +24970,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="79" t="s">
         <v>234</v>
@@ -25003,7 +25009,7 @@
         <v>188</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>213</v>
@@ -25039,7 +25045,7 @@
         <v>189</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>215</v>
@@ -25075,7 +25081,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>216</v>
@@ -25111,7 +25117,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>214</v>
@@ -25147,10 +25153,10 @@
         <v>230</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="77"/>
@@ -25183,10 +25189,10 @@
         <v>231</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="77"/>
@@ -25219,7 +25225,7 @@
         <v>232</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>233</v>
@@ -25594,10 +25600,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D28" s="79" t="s">
         <v>238</v>
@@ -25630,13 +25636,13 @@
         <v>192</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E29" s="78"/>
       <c r="F29" s="77"/>
@@ -25669,7 +25675,7 @@
         <v>235</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D30" s="79" t="s">
         <v>237</v>
@@ -25738,10 +25744,10 @@
         <v>195</v>
       </c>
       <c r="B32" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="78" t="s">
         <v>259</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>261</v>
       </c>
       <c r="D32" s="79" t="s">
         <v>240</v>
@@ -25774,10 +25780,10 @@
         <v>196</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D33" s="79" t="s">
         <v>241</v>
@@ -25807,16 +25813,16 @@
     </row>
     <row r="34" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="77" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="77"/>
@@ -25843,16 +25849,16 @@
     </row>
     <row r="35" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="D35" s="78" t="s">
         <v>284</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>286</v>
       </c>
       <c r="E35" s="78"/>
       <c r="F35" s="77"/>
@@ -25879,16 +25885,16 @@
     </row>
     <row r="36" spans="1:26" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="79" t="s">
         <v>287</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>289</v>
       </c>
       <c r="E36" s="78"/>
       <c r="F36" s="77"/>
@@ -25915,16 +25921,16 @@
     </row>
     <row r="37" spans="1:26" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E37" s="78"/>
       <c r="F37" s="77"/>
@@ -25951,16 +25957,16 @@
     </row>
     <row r="38" spans="1:26" ht="242.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B38" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="79" t="s">
         <v>293</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>295</v>
       </c>
       <c r="E38" s="78"/>
       <c r="F38" s="77"/>
@@ -32314,10 +32320,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EADC4-51B0-4BE0-8FBA-B24E6C3A322C}">
-  <dimension ref="A2:K78"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32341,7 +32347,7 @@
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -32399,7 +32405,7 @@
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -32856,7 +32862,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="112" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -32866,7 +32872,7 @@
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B49" s="85"/>
       <c r="C49" s="85"/>
@@ -33069,14 +33075,14 @@
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="85" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="B70" s="85"/>
       <c r="C70" s="85"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -33087,7 +33093,7 @@
     </row>
     <row r="72" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -33102,77 +33108,201 @@
       <c r="G73" s="97"/>
     </row>
     <row r="74" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="E74" s="97"/>
       <c r="F74" s="97"/>
       <c r="G74" s="97"/>
     </row>
     <row r="75" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
       <c r="E75" s="97"/>
       <c r="F75" s="97"/>
       <c r="G75" s="97"/>
     </row>
     <row r="76" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="90" t="s">
+      <c r="C77" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="90" t="s">
+      <c r="D77" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E77" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="90" t="s">
+      <c r="F77" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="90" t="s">
+      <c r="G77" s="90" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="91">
-        <v>5</v>
-      </c>
-      <c r="C77" s="101">
-        <v>2</v>
-      </c>
-      <c r="D77" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" s="103">
-        <v>1</v>
-      </c>
-      <c r="G77" s="91">
-        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="103">
         <v>1</v>
       </c>
       <c r="G78" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="91">
+        <v>6</v>
+      </c>
+      <c r="C79" s="101">
+        <v>1</v>
+      </c>
+      <c r="D79" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="103">
+        <v>1</v>
+      </c>
+      <c r="G79" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="91">
+        <v>7</v>
+      </c>
+      <c r="C80" s="101">
+        <v>1</v>
+      </c>
+      <c r="D80" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" s="103">
+        <v>1</v>
+      </c>
+      <c r="G80" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+    </row>
+    <row r="87" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="91">
+        <v>8</v>
+      </c>
+      <c r="C88" s="101">
+        <v>2</v>
+      </c>
+      <c r="D88" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="103">
+        <v>1</v>
+      </c>
+      <c r="G88" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="91">
+        <v>9</v>
+      </c>
+      <c r="C89" s="101">
+        <v>1</v>
+      </c>
+      <c r="D89" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="103">
+        <v>1</v>
+      </c>
+      <c r="G89" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="91">
+        <v>10</v>
+      </c>
+      <c r="C90" s="101">
+        <v>1</v>
+      </c>
+      <c r="D90" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="103">
+        <v>1</v>
+      </c>
+      <c r="G90" s="91">
         <v>0</v>
       </c>
     </row>
